--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dll3-Notch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dll3-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,15 +79,6 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>Neutro</t>
-  </si>
-  <si>
-    <t>Dll3</t>
-  </si>
-  <si>
-    <t>Notch2</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -97,7 +88,16 @@
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
+  </si>
+  <si>
+    <t>Dll3</t>
+  </si>
+  <si>
+    <t>Notch2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H2">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I2">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J2">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N2">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O2">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P2">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q2">
-        <v>1.370417130318726</v>
+        <v>1.417772901737</v>
       </c>
       <c r="R2">
-        <v>1.370417130318726</v>
+        <v>5.671091606948</v>
       </c>
       <c r="S2">
-        <v>0.005220964150080378</v>
+        <v>0.002899521197226741</v>
       </c>
       <c r="T2">
-        <v>0.005220964150080378</v>
+        <v>0.001604640957041583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H3">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I3">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J3">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N3">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P3">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q3">
-        <v>17.41598211316114</v>
+        <v>18.58155150222167</v>
       </c>
       <c r="R3">
-        <v>17.41598211316114</v>
+        <v>111.48930901333</v>
       </c>
       <c r="S3">
-        <v>0.06635076010039927</v>
+        <v>0.03800157443554138</v>
       </c>
       <c r="T3">
-        <v>0.06635076010039927</v>
+        <v>0.0315460098186164</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H4">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I4">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J4">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N4">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O4">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P4">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q4">
-        <v>46.43680254264775</v>
+        <v>48.45968970382634</v>
       </c>
       <c r="R4">
-        <v>46.43680254264775</v>
+        <v>290.7581382229581</v>
       </c>
       <c r="S4">
-        <v>0.1769132010653854</v>
+        <v>0.09910606792888174</v>
       </c>
       <c r="T4">
-        <v>0.1769132010653854</v>
+        <v>0.0822703016495276</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H5">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I5">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J5">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N5">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O5">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P5">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q5">
-        <v>55.44644316750922</v>
+        <v>56.65496587727934</v>
       </c>
       <c r="R5">
-        <v>55.44644316750922</v>
+        <v>339.9297952636761</v>
       </c>
       <c r="S5">
-        <v>0.2112377944076836</v>
+        <v>0.1158664228157197</v>
       </c>
       <c r="T5">
-        <v>0.2112377944076836</v>
+        <v>0.09618347045048112</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H6">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I6">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J6">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N6">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O6">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P6">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q6">
-        <v>1.799643756844959</v>
+        <v>1.905043395744334</v>
       </c>
       <c r="R6">
-        <v>1.799643756844959</v>
+        <v>11.430260374466</v>
       </c>
       <c r="S6">
-        <v>0.006856215767835774</v>
+        <v>0.003896049713483779</v>
       </c>
       <c r="T6">
-        <v>0.006856215767835774</v>
+        <v>0.003234203433435348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.10412342940316</v>
+        <v>1.122431</v>
       </c>
       <c r="H7">
-        <v>1.10412342940316</v>
+        <v>2.244862</v>
       </c>
       <c r="I7">
-        <v>0.5815375518385475</v>
+        <v>0.3274916767748757</v>
       </c>
       <c r="J7">
-        <v>0.5815375518385475</v>
+        <v>0.252317076295933</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.3291402792182</v>
+        <v>29.501953</v>
       </c>
       <c r="N7">
-        <v>27.3291402792182</v>
+        <v>59.003906</v>
       </c>
       <c r="O7">
-        <v>0.1976804696166534</v>
+        <v>0.2067901125028462</v>
       </c>
       <c r="P7">
-        <v>0.1976804696166534</v>
+        <v>0.1485371126561165</v>
       </c>
       <c r="Q7">
-        <v>30.17474408773044</v>
+        <v>33.113906607743</v>
       </c>
       <c r="R7">
-        <v>30.17474408773044</v>
+        <v>132.455626430972</v>
       </c>
       <c r="S7">
-        <v>0.114958616347163</v>
+        <v>0.06772204068402229</v>
       </c>
       <c r="T7">
-        <v>0.114958616347163</v>
+        <v>0.03747844998683093</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H8">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I8">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J8">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N8">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O8">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P8">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q8">
-        <v>0.9861239494208596</v>
+        <v>0.5534740415636665</v>
       </c>
       <c r="R8">
-        <v>0.9861239494208596</v>
+        <v>3.320844249382</v>
       </c>
       <c r="S8">
-        <v>0.003756898300201898</v>
+        <v>0.001131922971346437</v>
       </c>
       <c r="T8">
-        <v>0.003756898300201898</v>
+        <v>0.0009396361518804909</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H9">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I9">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J9">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N9">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O9">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P9">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q9">
-        <v>12.53218212507251</v>
+        <v>7.253916615177221</v>
       </c>
       <c r="R9">
-        <v>12.53218212507251</v>
+        <v>65.28524953659499</v>
       </c>
       <c r="S9">
-        <v>0.04774464077376519</v>
+        <v>0.01483515798817493</v>
       </c>
       <c r="T9">
-        <v>0.04774464077376519</v>
+        <v>0.01847252567191002</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H10">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I10">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J10">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N10">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O10">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P10">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q10">
-        <v>33.41496695329706</v>
+        <v>18.91782547151078</v>
       </c>
       <c r="R10">
-        <v>33.41496695329706</v>
+        <v>170.260429243597</v>
       </c>
       <c r="S10">
-        <v>0.1273030967576344</v>
+        <v>0.03868929635548693</v>
       </c>
       <c r="T10">
-        <v>0.1273030967576344</v>
+        <v>0.04817535618592968</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H11">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I11">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J11">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N11">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O11">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P11">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q11">
-        <v>39.89811883405666</v>
+        <v>22.11711967433711</v>
       </c>
       <c r="R11">
-        <v>39.89811883405666</v>
+        <v>199.054077069034</v>
       </c>
       <c r="S11">
-        <v>0.1520023673666495</v>
+        <v>0.04523224928249975</v>
       </c>
       <c r="T11">
-        <v>0.1520023673666495</v>
+        <v>0.05632254720409641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.794504485359081</v>
+        <v>0.4381776666666666</v>
       </c>
       <c r="H12">
-        <v>0.794504485359081</v>
+        <v>1.314533</v>
       </c>
       <c r="I12">
-        <v>0.4184624481614525</v>
+        <v>0.1278470915200749</v>
       </c>
       <c r="J12">
-        <v>0.4184624481614525</v>
+        <v>0.1477503397779114</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N12">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O12">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P12">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q12">
-        <v>1.294986591883742</v>
+        <v>0.7436960223354444</v>
       </c>
       <c r="R12">
-        <v>1.294986591883742</v>
+        <v>6.693264201019</v>
       </c>
       <c r="S12">
-        <v>0.004933591693711038</v>
+        <v>0.001520950483968865</v>
       </c>
       <c r="T12">
-        <v>0.004933591693711038</v>
+        <v>0.001893865699523653</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1549 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4381776666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.314533</v>
+      </c>
+      <c r="I13">
+        <v>0.1278470915200749</v>
+      </c>
+      <c r="J13">
+        <v>0.1477503397779114</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.501953</v>
+      </c>
+      <c r="N13">
+        <v>59.003906</v>
+      </c>
+      <c r="O13">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P13">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q13">
+        <v>12.92709692764967</v>
+      </c>
+      <c r="R13">
+        <v>77.562581565898</v>
+      </c>
+      <c r="S13">
+        <v>0.02643751443859796</v>
+      </c>
+      <c r="T13">
+        <v>0.02194640886457111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J14">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.263127</v>
+      </c>
+      <c r="N14">
+        <v>2.526254</v>
+      </c>
+      <c r="O14">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P14">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q14">
+        <v>0.2417039829156666</v>
+      </c>
+      <c r="R14">
+        <v>1.450223897494</v>
+      </c>
+      <c r="S14">
+        <v>0.0004943145838515328</v>
+      </c>
+      <c r="T14">
+        <v>0.0004103422804788214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J15">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N15">
+        <v>49.664215</v>
+      </c>
+      <c r="O15">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P15">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q15">
+        <v>3.167809880790555</v>
+      </c>
+      <c r="R15">
+        <v>28.510288927115</v>
+      </c>
+      <c r="S15">
+        <v>0.006478563588627814</v>
+      </c>
+      <c r="T15">
+        <v>0.008067014338736521</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J16">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N16">
+        <v>129.521609</v>
+      </c>
+      <c r="O16">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P16">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q16">
+        <v>8.261478264905444</v>
+      </c>
+      <c r="R16">
+        <v>74.353304384149</v>
+      </c>
+      <c r="S16">
+        <v>0.01689574636401459</v>
+      </c>
+      <c r="T16">
+        <v>0.02103834072438727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.794504485359081</v>
-      </c>
-      <c r="H13">
-        <v>0.794504485359081</v>
-      </c>
-      <c r="I13">
-        <v>0.4184624481614525</v>
-      </c>
-      <c r="J13">
-        <v>0.4184624481614525</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>27.3291402792182</v>
-      </c>
-      <c r="N13">
-        <v>27.3291402792182</v>
-      </c>
-      <c r="O13">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="P13">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="Q13">
-        <v>21.71312453284639</v>
-      </c>
-      <c r="R13">
-        <v>21.71312453284639</v>
-      </c>
-      <c r="S13">
-        <v>0.08272185326949041</v>
-      </c>
-      <c r="T13">
-        <v>0.08272185326949041</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I17">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J17">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N17">
+        <v>151.425698</v>
+      </c>
+      <c r="O17">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P17">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q17">
+        <v>9.658620846619778</v>
+      </c>
+      <c r="R17">
+        <v>86.92758761957799</v>
+      </c>
+      <c r="S17">
+        <v>0.0197530760014097</v>
+      </c>
+      <c r="T17">
+        <v>0.02459624655336214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I18">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J18">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N18">
+        <v>5.091743</v>
+      </c>
+      <c r="O18">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P18">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q18">
+        <v>0.3247745642581111</v>
+      </c>
+      <c r="R18">
+        <v>2.922971078323</v>
+      </c>
+      <c r="S18">
+        <v>0.0006642042122774023</v>
+      </c>
+      <c r="T18">
+        <v>0.0008270575461660133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1913536666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.5740609999999999</v>
+      </c>
+      <c r="I19">
+        <v>0.05583125657941316</v>
+      </c>
+      <c r="J19">
+        <v>0.06452307230267142</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.501953</v>
+      </c>
+      <c r="N19">
+        <v>59.003906</v>
+      </c>
+      <c r="O19">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P19">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q19">
+        <v>5.645306880377666</v>
+      </c>
+      <c r="R19">
+        <v>33.871841282266</v>
+      </c>
+      <c r="S19">
+        <v>0.01154535182923212</v>
+      </c>
+      <c r="T19">
+        <v>0.009584070859540654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.083641</v>
+      </c>
+      <c r="I20">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J20">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.263127</v>
+      </c>
+      <c r="N20">
+        <v>2.526254</v>
+      </c>
+      <c r="O20">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P20">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q20">
+        <v>0.4562587351356667</v>
+      </c>
+      <c r="R20">
+        <v>2.737552410814</v>
+      </c>
+      <c r="S20">
+        <v>0.0009331056280769098</v>
+      </c>
+      <c r="T20">
+        <v>0.0007745931515298034</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.083641</v>
+      </c>
+      <c r="I21">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J21">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N21">
+        <v>49.664215</v>
+      </c>
+      <c r="O21">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P21">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q21">
+        <v>5.979797734090556</v>
+      </c>
+      <c r="R21">
+        <v>53.818179606815</v>
+      </c>
+      <c r="S21">
+        <v>0.01222942705695777</v>
+      </c>
+      <c r="T21">
+        <v>0.01522790693853577</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.083641</v>
+      </c>
+      <c r="I22">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J22">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N22">
+        <v>129.521609</v>
+      </c>
+      <c r="O22">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P22">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q22">
+        <v>15.59499176648545</v>
+      </c>
+      <c r="R22">
+        <v>140.354925898369</v>
+      </c>
+      <c r="S22">
+        <v>0.03189368984419275</v>
+      </c>
+      <c r="T22">
+        <v>0.03971356455309758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.083641</v>
+      </c>
+      <c r="I23">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J23">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N23">
+        <v>151.425698</v>
+      </c>
+      <c r="O23">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P23">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q23">
+        <v>18.23234386737978</v>
+      </c>
+      <c r="R23">
+        <v>164.091094806418</v>
+      </c>
+      <c r="S23">
+        <v>0.03728740156750521</v>
+      </c>
+      <c r="T23">
+        <v>0.04642973692923209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.083641</v>
+      </c>
+      <c r="I24">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J24">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N24">
+        <v>5.091743</v>
+      </c>
+      <c r="O24">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P24">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q24">
+        <v>0.6130690529181112</v>
+      </c>
+      <c r="R24">
+        <v>5.517621476263001</v>
+      </c>
+      <c r="S24">
+        <v>0.001253802151333215</v>
+      </c>
+      <c r="T24">
+        <v>0.001561216432373711</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.3612136666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.083641</v>
+      </c>
+      <c r="I25">
+        <v>0.1053913063437019</v>
+      </c>
+      <c r="J25">
+        <v>0.1217986356731064</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.501953</v>
+      </c>
+      <c r="N25">
+        <v>59.003906</v>
+      </c>
+      <c r="O25">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P25">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q25">
+        <v>10.65650861695767</v>
+      </c>
+      <c r="R25">
+        <v>63.939051701746</v>
+      </c>
+      <c r="S25">
+        <v>0.02179388009563605</v>
+      </c>
+      <c r="T25">
+        <v>0.0180916176683375</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H26">
+        <v>3.154585</v>
+      </c>
+      <c r="I26">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J26">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.263127</v>
+      </c>
+      <c r="N26">
+        <v>2.526254</v>
+      </c>
+      <c r="O26">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P26">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q26">
+        <v>1.328213829098333</v>
+      </c>
+      <c r="R26">
+        <v>7.96928297459</v>
+      </c>
+      <c r="S26">
+        <v>0.002716361800399762</v>
+      </c>
+      <c r="T26">
+        <v>0.002254916468570906</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H27">
+        <v>3.154585</v>
+      </c>
+      <c r="I27">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J27">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N27">
+        <v>49.664215</v>
+      </c>
+      <c r="O27">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P27">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q27">
+        <v>17.40777640841944</v>
+      </c>
+      <c r="R27">
+        <v>156.669987675775</v>
+      </c>
+      <c r="S27">
+        <v>0.03560105897845608</v>
+      </c>
+      <c r="T27">
+        <v>0.04432992735573946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H28">
+        <v>3.154585</v>
+      </c>
+      <c r="I28">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J28">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N28">
+        <v>129.521609</v>
+      </c>
+      <c r="O28">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P28">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q28">
+        <v>45.39854721414056</v>
+      </c>
+      <c r="R28">
+        <v>408.586924927265</v>
+      </c>
+      <c r="S28">
+        <v>0.09284565236747482</v>
+      </c>
+      <c r="T28">
+        <v>0.1156100729261197</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H29">
+        <v>3.154585</v>
+      </c>
+      <c r="I29">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J29">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N29">
+        <v>151.425698</v>
+      </c>
+      <c r="O29">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P29">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q29">
+        <v>53.07613728059223</v>
+      </c>
+      <c r="R29">
+        <v>477.68523552533</v>
+      </c>
+      <c r="S29">
+        <v>0.1085472750420374</v>
+      </c>
+      <c r="T29">
+        <v>0.1351615079817962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H30">
+        <v>3.154585</v>
+      </c>
+      <c r="I30">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J30">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N30">
+        <v>5.091743</v>
+      </c>
+      <c r="O30">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P30">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q30">
+        <v>1.784704010183889</v>
+      </c>
+      <c r="R30">
+        <v>16.062336091655</v>
+      </c>
+      <c r="S30">
+        <v>0.003649940764112367</v>
+      </c>
+      <c r="T30">
+        <v>0.004544853820886828</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1.051528333333333</v>
+      </c>
+      <c r="H31">
+        <v>3.154585</v>
+      </c>
+      <c r="I31">
+        <v>0.3068044067382527</v>
+      </c>
+      <c r="J31">
+        <v>0.354567748096322</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>29.501953</v>
+      </c>
+      <c r="N31">
+        <v>59.003906</v>
+      </c>
+      <c r="O31">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P31">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q31">
+        <v>31.02213946816834</v>
+      </c>
+      <c r="R31">
+        <v>186.13283680901</v>
+      </c>
+      <c r="S31">
+        <v>0.06344411778577226</v>
+      </c>
+      <c r="T31">
+        <v>0.05266646954320892</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.5</v>
+      </c>
+      <c r="G32">
+        <v>0.262653</v>
+      </c>
+      <c r="H32">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I32">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J32">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.263127</v>
+      </c>
+      <c r="N32">
+        <v>2.526254</v>
+      </c>
+      <c r="O32">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P32">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q32">
+        <v>0.331764095931</v>
+      </c>
+      <c r="R32">
+        <v>1.327056383724</v>
+      </c>
+      <c r="S32">
+        <v>0.0006784986703104199</v>
+      </c>
+      <c r="T32">
+        <v>0.0003754919111195635</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.5</v>
+      </c>
+      <c r="G33">
+        <v>0.262653</v>
+      </c>
+      <c r="H33">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I33">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J33">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N33">
+        <v>49.664215</v>
+      </c>
+      <c r="O33">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P33">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q33">
+        <v>4.348151687465</v>
+      </c>
+      <c r="R33">
+        <v>26.08891012479</v>
+      </c>
+      <c r="S33">
+        <v>0.008892508786926101</v>
+      </c>
+      <c r="T33">
+        <v>0.007381882821205982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.5</v>
+      </c>
+      <c r="G34">
+        <v>0.262653</v>
+      </c>
+      <c r="H34">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I34">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J34">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N34">
+        <v>129.521609</v>
+      </c>
+      <c r="O34">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P34">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q34">
+        <v>11.339746389559</v>
+      </c>
+      <c r="R34">
+        <v>68.03847833735401</v>
+      </c>
+      <c r="S34">
+        <v>0.02319118597020625</v>
+      </c>
+      <c r="T34">
+        <v>0.0192515544734183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.5</v>
+      </c>
+      <c r="G35">
+        <v>0.262653</v>
+      </c>
+      <c r="H35">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I35">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J35">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N35">
+        <v>151.425698</v>
+      </c>
+      <c r="O35">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P35">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q35">
+        <v>13.257471285598</v>
+      </c>
+      <c r="R35">
+        <v>79.54482771358802</v>
+      </c>
+      <c r="S35">
+        <v>0.02711317092259322</v>
+      </c>
+      <c r="T35">
+        <v>0.02250728736486271</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.5</v>
+      </c>
+      <c r="G36">
+        <v>0.262653</v>
+      </c>
+      <c r="H36">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I36">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J36">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N36">
+        <v>5.091743</v>
+      </c>
+      <c r="O36">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P36">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q36">
+        <v>0.445787191393</v>
+      </c>
+      <c r="R36">
+        <v>2.674723148358</v>
+      </c>
+      <c r="S36">
+        <v>0.0009116900240599688</v>
+      </c>
+      <c r="T36">
+        <v>0.0007568155498218548</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.5</v>
+      </c>
+      <c r="G37">
+        <v>0.262653</v>
+      </c>
+      <c r="H37">
+        <v>0.5253060000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.07663426204368146</v>
+      </c>
+      <c r="J37">
+        <v>0.05904312785405578</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>29.501953</v>
+      </c>
+      <c r="N37">
+        <v>59.003906</v>
+      </c>
+      <c r="O37">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P37">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q37">
+        <v>7.748776461309001</v>
+      </c>
+      <c r="R37">
+        <v>30.995105845236</v>
+      </c>
+      <c r="S37">
+        <v>0.01584720766958549</v>
+      </c>
+      <c r="T37">
+        <v>0.008770095733627373</v>
       </c>
     </row>
   </sheetData>
